--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="40" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="64" uniqueCount="8">
   <si>
     <t>eff_sample</t>
   </si>

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
   <si>
     <t>eff_sample</t>
   </si>
@@ -121,28 +145,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">

--- a/myobs.xlsx
+++ b/myobs.xlsx
@@ -13,7 +13,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
+  <si>
+    <t>eff_sample</t>
+  </si>
+  <si>
+    <t>gy_obs</t>
+  </si>
+  <si>
+    <t>gc_obs</t>
+  </si>
+  <si>
+    <t>gi_obs</t>
+  </si>
+  <si>
+    <t>pi_obs</t>
+  </si>
+  <si>
+    <t>r_obs</t>
+  </si>
+  <si>
+    <t>l_obs</t>
+  </si>
+  <si>
+    <t>co2_obs</t>
+  </si>
   <si>
     <t>eff_sample</t>
   </si>
@@ -145,28 +265,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
